--- a/Documents/Data/Finance & Law/Finance and Law.xlsx
+++ b/Documents/Data/Finance & Law/Finance and Law.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>STT</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>HarperCollins Publishers Inc</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +223,12 @@
       <color rgb="FF333333"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -251,6 +260,9 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,24 +577,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="24.21875" customWidth="1"/>
-    <col min="9" max="9" width="39.21875" customWidth="1"/>
+    <col min="2" max="2" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,20 +611,23 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -627,20 +643,23 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="8">
+        <v>9780091816971</v>
+      </c>
+      <c r="G2" s="4">
         <v>6.84</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>38869</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3">
         <v>2</v>
       </c>
@@ -656,20 +675,23 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="9">
+        <v>9780753555194</v>
+      </c>
+      <c r="G3" s="4">
         <v>9.7200000000000006</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>42159</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -685,20 +707,23 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="9">
+        <v>9780099302780</v>
+      </c>
+      <c r="G4" s="4">
         <v>14.07</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>36642</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -714,20 +739,23 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="9">
+        <v>9781878424716</v>
+      </c>
+      <c r="G5" s="4">
         <v>13.67</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>35278</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -743,20 +771,23 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="9">
+        <v>9780451205360</v>
+      </c>
+      <c r="G6" s="4">
         <v>7.94</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>41674</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -772,20 +803,23 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="9">
+        <v>9780714843377</v>
+      </c>
+      <c r="G7" s="4">
         <v>7.49</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>37788</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -801,20 +835,23 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="9">
+        <v>9780674430006</v>
+      </c>
+      <c r="G8" s="4">
         <v>42.56</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>41780</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>39</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -830,20 +867,23 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="9">
+        <v>9781408703748</v>
+      </c>
+      <c r="G9" s="4">
         <v>30.82</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>40840</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -859,20 +899,23 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="9">
+        <v>9781847677693</v>
+      </c>
+      <c r="G10" s="4">
         <v>9.17</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>40556</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -888,16 +931,19 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="9">
+        <v>9780887307287</v>
+      </c>
+      <c r="G11" s="4">
         <v>13.21</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>38274</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>30</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>52</v>
       </c>
     </row>
